--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_18-40.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_18-40.xlsx
@@ -59,9 +59,6 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>CONVENTIN XR 300MG 30 TABS.</t>
+  </si>
+  <si>
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
   </si>
   <si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>9:0</t>
+  </si>
+  <si>
+    <t>MOXEN 15 MG 20 TABS</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
   </si>
   <si>
     <t>NEUROTON 6 AMP</t>
@@ -1063,11 +1072,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1075,7 +1084,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1093,7 +1102,7 @@
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1101,7 +1110,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1127,7 +1136,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1135,7 +1144,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1145,7 +1154,7 @@
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1153,7 +1162,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1171,7 +1180,7 @@
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1179,7 +1188,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1205,7 +1214,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1223,7 +1232,7 @@
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1231,7 +1240,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1257,7 +1266,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1265,7 +1274,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1283,7 +1292,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1309,7 +1318,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1317,7 +1326,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1335,7 +1344,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1343,7 +1352,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1361,7 +1370,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1379,7 +1388,7 @@
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1387,7 +1396,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1395,7 +1404,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1413,7 +1422,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1421,7 +1430,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1439,7 +1448,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1465,7 +1474,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1473,7 +1482,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1491,7 +1500,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1499,17 +1508,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1517,7 +1526,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1525,17 +1534,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1543,7 +1552,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1551,17 +1560,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>12</v>
+        <v>27.5</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1569,7 +1578,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1577,17 +1586,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1595,7 +1604,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1603,17 +1612,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1621,7 +1630,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1629,7 +1638,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1639,7 +1648,7 @@
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1647,7 +1656,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1655,17 +1664,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1673,7 +1682,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1681,17 +1690,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1699,7 +1708,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1707,17 +1716,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1725,7 +1734,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1733,17 +1742,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1751,7 +1760,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1759,17 +1768,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1777,7 +1786,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1785,17 +1794,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1803,7 +1812,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1811,17 +1820,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1829,7 +1838,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1837,13 +1846,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1855,7 +1864,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1863,17 +1872,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1881,7 +1890,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1889,17 +1898,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1907,7 +1916,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1915,17 +1924,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>-25</v>
+        <v>177</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1933,7 +1942,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1941,17 +1950,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>14.25</v>
+        <v>-25</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1959,7 +1968,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1967,17 +1976,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>78</v>
+        <v>14.25</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1985,7 +1994,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1993,17 +2002,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>27.440000000000001</v>
+        <v>78</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2011,7 +2020,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2019,17 +2028,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>57</v>
+        <v>27.440000000000001</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2037,7 +2046,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2045,13 +2054,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>120.78</v>
+        <v>57</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2063,7 +2072,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2071,13 +2080,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>70</v>
+        <v>120.78</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2089,7 +2098,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2097,13 +2106,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2115,7 +2124,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2123,17 +2132,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2141,7 +2150,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2149,17 +2158,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2167,7 +2176,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2175,13 +2184,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>56</v>
+        <v>240</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2193,7 +2202,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2201,13 +2210,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2219,7 +2228,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2227,17 +2236,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2245,7 +2254,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2253,17 +2262,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2271,7 +2280,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2279,17 +2288,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2297,7 +2306,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2305,17 +2314,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>411</v>
+        <v>33</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2331,17 +2340,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2357,17 +2366,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2383,13 +2392,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>24</v>
+        <v>411</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2401,7 +2410,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2409,17 +2418,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2427,7 +2436,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2441,7 +2450,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>160.05000000000001</v>
+        <v>27</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2453,7 +2462,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2461,17 +2470,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2479,7 +2488,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2487,17 +2496,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2505,7 +2514,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2513,13 +2522,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>45</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2531,7 +2540,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2539,17 +2548,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>86.5</v>
+        <v>8</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2557,7 +2566,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2565,17 +2574,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2591,17 +2600,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2617,17 +2626,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>282</v>
+        <v>86.5</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2643,17 +2652,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>30.5</v>
+        <v>67</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2669,13 +2678,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>31.5</v>
+        <v>62</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2687,7 +2696,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2695,17 +2704,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2713,7 +2722,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2721,17 +2730,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>123</v>
+        <v>30.5</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2739,7 +2748,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2747,17 +2756,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>24</v>
+        <v>31.5</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2773,13 +2782,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>68.400000000000006</v>
+        <v>60</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2799,17 +2808,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>26.100000000000001</v>
+        <v>123</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2825,17 +2834,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2851,13 +2860,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>132</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2877,17 +2886,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>51</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2895,7 +2904,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2903,17 +2912,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>94.5</v>
+        <v>62</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2921,7 +2930,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2929,13 +2938,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2947,7 +2956,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2955,13 +2964,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2973,7 +2982,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2981,17 +2990,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>20</v>
+        <v>94.5</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2999,7 +3008,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3007,13 +3016,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3025,7 +3034,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3033,17 +3042,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>116</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3051,7 +3060,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3059,17 +3068,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3077,7 +3086,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3085,13 +3094,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3103,7 +3112,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3111,17 +3120,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3129,7 +3138,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3137,17 +3146,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3155,7 +3164,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3163,51 +3172,129 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="K89" s="10">
-        <v>5488.6700000000001</v>
-      </c>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="11">
+    <row r="89" ht="24.75" customHeight="1">
+      <c r="A89" s="6">
+        <v>86</v>
+      </c>
+      <c t="s" r="B89" s="7">
+        <v>124</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c t="s" r="H89" s="8">
+        <v>125</v>
+      </c>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="9">
+        <v>15</v>
+      </c>
+      <c r="M89" s="9"/>
+      <c t="s" r="N89" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" ht="25.5" customHeight="1">
+      <c r="A90" s="6">
+        <v>87</v>
+      </c>
+      <c t="s" r="B90" s="7">
         <v>126</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c t="s" r="F90" s="12">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c t="s" r="H90" s="8">
+        <v>113</v>
+      </c>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="9">
+        <v>24</v>
+      </c>
+      <c r="M90" s="9"/>
+      <c t="s" r="N90" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" ht="24.75" customHeight="1">
+      <c r="A91" s="6">
+        <v>88</v>
+      </c>
+      <c t="s" r="B91" s="7">
         <v>127</v>
       </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="13"/>
-      <c t="s" r="I90" s="14">
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c t="s" r="H91" s="8">
         <v>128</v>
       </c>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="9">
+        <v>30</v>
+      </c>
+      <c r="M91" s="9"/>
+      <c t="s" r="N91" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" ht="26.25" customHeight="1">
+      <c r="K92" s="10">
+        <v>5713.6700000000001</v>
+      </c>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="11">
+        <v>129</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c t="s" r="F93" s="12">
+        <v>130</v>
+      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="13"/>
+      <c t="s" r="I93" s="14">
+        <v>131</v>
+      </c>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="266">
+  <mergeCells count="275">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3470,10 +3557,19 @@
     <mergeCell ref="B88:G88"/>
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="I90:N90"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="I93:N93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
